--- a/raw.xlsx
+++ b/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bonghayun/Desktop/project/python/getGoogleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AEC484-F907-1843-B22E-49BFBDC67681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72BB074-BFCF-0949-A72B-5DAB8C218F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>정치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>2016-12-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박근혜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄핵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +459,7 @@
   <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -505,11 +513,15 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
